--- a/shotlist.xlsx
+++ b/shotlist.xlsx
@@ -1,15 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20660" windowHeight="16160"/>
+    <workbookView xWindow="3075" yWindow="0" windowWidth="20655" windowHeight="16155"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
+    <sheet name="overview" sheetId="1" r:id="rId1"/>
+    <sheet name="run1" sheetId="2" r:id="rId2"/>
+    <sheet name="run2" sheetId="3" r:id="rId3"/>
+    <sheet name="run3" sheetId="4" r:id="rId4"/>
+    <sheet name="run4" sheetId="5" r:id="rId5"/>
+    <sheet name="run5" sheetId="6" r:id="rId6"/>
+    <sheet name="run6" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
   <si>
     <t>shot start</t>
   </si>
@@ -88,12 +92,21 @@
   <si>
     <t>number</t>
   </si>
+  <si>
+    <t>shot</t>
+  </si>
+  <si>
+    <t>pos</t>
+  </si>
+  <si>
+    <t>fcshift</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +118,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -127,8 +156,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -136,8 +169,12 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="5">
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -428,16 +465,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="7" max="7" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -914,15 +951,1883 @@
   <conditionalFormatting sqref="J2:J18">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C68"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>167735</v>
+      </c>
+      <c r="B2">
+        <v>41.5</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>167736</v>
+      </c>
+      <c r="B3">
+        <v>41.5</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>167737</v>
+      </c>
+      <c r="B4">
+        <v>41.5</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>167738</v>
+      </c>
+      <c r="B5">
+        <v>41.5</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>167739</v>
+      </c>
+      <c r="B6">
+        <v>41.5</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>167740</v>
+      </c>
+      <c r="B7">
+        <v>41.5</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>167741</v>
+      </c>
+      <c r="B8">
+        <v>41.5</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>167742</v>
+      </c>
+      <c r="B9">
+        <v>41.5</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>167743</v>
+      </c>
+      <c r="B10">
+        <v>41.5</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>167744</v>
+      </c>
+      <c r="B11">
+        <v>41.5</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>167745</v>
+      </c>
+      <c r="B12">
+        <v>41.5</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>167750</v>
+      </c>
+      <c r="B13">
+        <v>39.5</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>167751</v>
+      </c>
+      <c r="B14">
+        <v>39.5</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>167752</v>
+      </c>
+      <c r="B15">
+        <v>39.5</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>167753</v>
+      </c>
+      <c r="B16">
+        <v>39.5</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>167754</v>
+      </c>
+      <c r="B17">
+        <v>39.5</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>167755</v>
+      </c>
+      <c r="B18">
+        <v>39.5</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>167756</v>
+      </c>
+      <c r="B19">
+        <v>39.5</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>167757</v>
+      </c>
+      <c r="B20">
+        <v>39.5</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>167758</v>
+      </c>
+      <c r="B21">
+        <v>39.5</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>167759</v>
+      </c>
+      <c r="B22">
+        <v>39.5</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>167760</v>
+      </c>
+      <c r="B23">
+        <v>39.5</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>167761</v>
+      </c>
+      <c r="B24">
+        <v>39.5</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>167762</v>
+      </c>
+      <c r="B25">
+        <v>39.5</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>167763</v>
+      </c>
+      <c r="B26">
+        <v>37.5</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>167764</v>
+      </c>
+      <c r="B27">
+        <v>37.5</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>167765</v>
+      </c>
+      <c r="B28">
+        <v>37.5</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>167766</v>
+      </c>
+      <c r="B29">
+        <v>37.5</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>167767</v>
+      </c>
+      <c r="B30">
+        <v>37.5</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>167768</v>
+      </c>
+      <c r="B31">
+        <v>37.5</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>167769</v>
+      </c>
+      <c r="B32">
+        <v>37.5</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>167770</v>
+      </c>
+      <c r="B33">
+        <v>37.5</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>167771</v>
+      </c>
+      <c r="B34">
+        <v>37.5</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>167772</v>
+      </c>
+      <c r="B35">
+        <v>37.5</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>167773</v>
+      </c>
+      <c r="B36">
+        <v>37.5</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>167774</v>
+      </c>
+      <c r="B37">
+        <v>37.5</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>167775</v>
+      </c>
+      <c r="B38">
+        <v>37.5</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>167776</v>
+      </c>
+      <c r="B39">
+        <v>37.5</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>167804</v>
+      </c>
+      <c r="B40">
+        <v>35.5</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>167805</v>
+      </c>
+      <c r="B41">
+        <v>35.5</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>167806</v>
+      </c>
+      <c r="B42">
+        <v>35.5</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>167807</v>
+      </c>
+      <c r="B43">
+        <v>35.5</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>167808</v>
+      </c>
+      <c r="B44">
+        <v>35.5</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>167809</v>
+      </c>
+      <c r="B45">
+        <v>35.5</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>167810</v>
+      </c>
+      <c r="B46">
+        <v>35.5</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>167811</v>
+      </c>
+      <c r="B47">
+        <v>35.5</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>167812</v>
+      </c>
+      <c r="B48">
+        <v>35.5</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>167813</v>
+      </c>
+      <c r="B49">
+        <v>35.5</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>167818</v>
+      </c>
+      <c r="B50">
+        <v>33.5</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>167819</v>
+      </c>
+      <c r="B51">
+        <v>33.5</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>167820</v>
+      </c>
+      <c r="B52">
+        <v>33.5</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>167821</v>
+      </c>
+      <c r="B53">
+        <v>33.5</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>167822</v>
+      </c>
+      <c r="B54">
+        <v>33.5</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>167823</v>
+      </c>
+      <c r="B55">
+        <v>33.5</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>167824</v>
+      </c>
+      <c r="B56">
+        <v>33.5</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>167825</v>
+      </c>
+      <c r="B57">
+        <v>33.5</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>167826</v>
+      </c>
+      <c r="B58">
+        <v>33.5</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>167827</v>
+      </c>
+      <c r="B59">
+        <v>33.5</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>167828</v>
+      </c>
+      <c r="B60">
+        <v>33.5</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>167829</v>
+      </c>
+      <c r="B61">
+        <v>33.5</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>167830</v>
+      </c>
+      <c r="B62">
+        <v>33.5</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>167831</v>
+      </c>
+      <c r="B63">
+        <v>33.5</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>167832</v>
+      </c>
+      <c r="B64">
+        <v>33.5</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>167833</v>
+      </c>
+      <c r="B65">
+        <v>33.5</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>167834</v>
+      </c>
+      <c r="B66">
+        <v>33.5</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>167835</v>
+      </c>
+      <c r="B67">
+        <v>33.5</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>167836</v>
+      </c>
+      <c r="B68">
+        <v>33.5</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C98"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>168124</v>
+      </c>
+      <c r="B2">
+        <v>41.5</v>
+      </c>
+      <c r="C2">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>168125</v>
+      </c>
+      <c r="B3">
+        <v>41.5</v>
+      </c>
+      <c r="C3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>168126</v>
+      </c>
+      <c r="B4">
+        <v>41.5</v>
+      </c>
+      <c r="C4">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>168127</v>
+      </c>
+      <c r="B5">
+        <v>41.5</v>
+      </c>
+      <c r="C5">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>168128</v>
+      </c>
+      <c r="B6">
+        <v>41.5</v>
+      </c>
+      <c r="C6">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>168129</v>
+      </c>
+      <c r="B7">
+        <v>41.5</v>
+      </c>
+      <c r="C7">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>168130</v>
+      </c>
+      <c r="B8">
+        <v>41.5</v>
+      </c>
+      <c r="C8">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>168131</v>
+      </c>
+      <c r="B9">
+        <v>41.5</v>
+      </c>
+      <c r="C9">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>168132</v>
+      </c>
+      <c r="B10">
+        <v>41.5</v>
+      </c>
+      <c r="C10">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>168133</v>
+      </c>
+      <c r="B11">
+        <v>41.5</v>
+      </c>
+      <c r="C11">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>168134</v>
+      </c>
+      <c r="B12">
+        <v>41.5</v>
+      </c>
+      <c r="C12">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>168135</v>
+      </c>
+      <c r="B13">
+        <v>41.5</v>
+      </c>
+      <c r="C13">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>168136</v>
+      </c>
+      <c r="B14">
+        <v>41.5</v>
+      </c>
+      <c r="C14">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>168137</v>
+      </c>
+      <c r="B15">
+        <v>41.5</v>
+      </c>
+      <c r="C15">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>168138</v>
+      </c>
+      <c r="B16">
+        <v>41.5</v>
+      </c>
+      <c r="C16">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>168139</v>
+      </c>
+      <c r="B17">
+        <v>41.5</v>
+      </c>
+      <c r="C17">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>168140</v>
+      </c>
+      <c r="B18">
+        <v>41.5</v>
+      </c>
+      <c r="C18">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>168141</v>
+      </c>
+      <c r="B19">
+        <v>41.5</v>
+      </c>
+      <c r="C19">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>168142</v>
+      </c>
+      <c r="B20">
+        <v>39.5</v>
+      </c>
+      <c r="C20">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>168143</v>
+      </c>
+      <c r="B21">
+        <v>39.5</v>
+      </c>
+      <c r="C21">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>168144</v>
+      </c>
+      <c r="B22">
+        <v>39.5</v>
+      </c>
+      <c r="C22">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>168145</v>
+      </c>
+      <c r="B23">
+        <v>39.5</v>
+      </c>
+      <c r="C23">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>168146</v>
+      </c>
+      <c r="B24">
+        <v>39.5</v>
+      </c>
+      <c r="C24">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>168147</v>
+      </c>
+      <c r="B25">
+        <v>39.5</v>
+      </c>
+      <c r="C25">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>168148</v>
+      </c>
+      <c r="B26">
+        <v>39.5</v>
+      </c>
+      <c r="C26">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>168149</v>
+      </c>
+      <c r="B27">
+        <v>39.5</v>
+      </c>
+      <c r="C27">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>168150</v>
+      </c>
+      <c r="B28">
+        <v>39.5</v>
+      </c>
+      <c r="C28">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>168151</v>
+      </c>
+      <c r="B29">
+        <v>39.5</v>
+      </c>
+      <c r="C29">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>168152</v>
+      </c>
+      <c r="B30">
+        <v>39.5</v>
+      </c>
+      <c r="C30">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>168153</v>
+      </c>
+      <c r="B31">
+        <v>39.5</v>
+      </c>
+      <c r="C31">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>168154</v>
+      </c>
+      <c r="B32">
+        <v>39.5</v>
+      </c>
+      <c r="C32">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>168155</v>
+      </c>
+      <c r="B33">
+        <v>39.5</v>
+      </c>
+      <c r="C33">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>168156</v>
+      </c>
+      <c r="B34">
+        <v>39.5</v>
+      </c>
+      <c r="C34">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>168157</v>
+      </c>
+      <c r="B35">
+        <v>39.5</v>
+      </c>
+      <c r="C35">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>168158</v>
+      </c>
+      <c r="B36">
+        <v>37.5</v>
+      </c>
+      <c r="C36">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>168159</v>
+      </c>
+      <c r="B37">
+        <v>37.5</v>
+      </c>
+      <c r="C37">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>168160</v>
+      </c>
+      <c r="B38">
+        <v>37.5</v>
+      </c>
+      <c r="C38">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>168161</v>
+      </c>
+      <c r="B39">
+        <v>37.5</v>
+      </c>
+      <c r="C39">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>168162</v>
+      </c>
+      <c r="B40">
+        <v>37.5</v>
+      </c>
+      <c r="C40">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>168163</v>
+      </c>
+      <c r="B41">
+        <v>37.5</v>
+      </c>
+      <c r="C41">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>168164</v>
+      </c>
+      <c r="B42">
+        <v>37.5</v>
+      </c>
+      <c r="C42">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>168165</v>
+      </c>
+      <c r="B43">
+        <v>37.5</v>
+      </c>
+      <c r="C43">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>168166</v>
+      </c>
+      <c r="B44">
+        <v>37.5</v>
+      </c>
+      <c r="C44">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>168167</v>
+      </c>
+      <c r="B45">
+        <v>37.5</v>
+      </c>
+      <c r="C45">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>168168</v>
+      </c>
+      <c r="B46">
+        <v>37.5</v>
+      </c>
+      <c r="C46">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>168169</v>
+      </c>
+      <c r="B47">
+        <v>35.5</v>
+      </c>
+      <c r="C47">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>168170</v>
+      </c>
+      <c r="B48">
+        <v>35.5</v>
+      </c>
+      <c r="C48">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>168171</v>
+      </c>
+      <c r="B49">
+        <v>35.5</v>
+      </c>
+      <c r="C49">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>168172</v>
+      </c>
+      <c r="B50">
+        <v>35.5</v>
+      </c>
+      <c r="C50">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>168173</v>
+      </c>
+      <c r="B51">
+        <v>35.5</v>
+      </c>
+      <c r="C51">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>168174</v>
+      </c>
+      <c r="B52">
+        <v>35.5</v>
+      </c>
+      <c r="C52">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>168175</v>
+      </c>
+      <c r="B53">
+        <v>35.5</v>
+      </c>
+      <c r="C53">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>168176</v>
+      </c>
+      <c r="B54">
+        <v>35.5</v>
+      </c>
+      <c r="C54">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>168177</v>
+      </c>
+      <c r="B55">
+        <v>33.5</v>
+      </c>
+      <c r="C55">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>168178</v>
+      </c>
+      <c r="B56">
+        <v>33.5</v>
+      </c>
+      <c r="C56">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>168179</v>
+      </c>
+      <c r="B57">
+        <v>33.5</v>
+      </c>
+      <c r="C57">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>168180</v>
+      </c>
+      <c r="B58">
+        <v>33.5</v>
+      </c>
+      <c r="C58">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>168181</v>
+      </c>
+      <c r="B59">
+        <v>33.5</v>
+      </c>
+      <c r="C59">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>168182</v>
+      </c>
+      <c r="B60">
+        <v>33.5</v>
+      </c>
+      <c r="C60">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>168183</v>
+      </c>
+      <c r="B61">
+        <v>33.5</v>
+      </c>
+      <c r="C61">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>168184</v>
+      </c>
+      <c r="B62">
+        <v>33.5</v>
+      </c>
+      <c r="C62">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>168185</v>
+      </c>
+      <c r="B63">
+        <v>41.5</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>168186</v>
+      </c>
+      <c r="B64">
+        <v>41.5</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>168187</v>
+      </c>
+      <c r="B65">
+        <v>41.5</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>168188</v>
+      </c>
+      <c r="B66">
+        <v>41.5</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>168189</v>
+      </c>
+      <c r="B67">
+        <v>41.5</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>168190</v>
+      </c>
+      <c r="B68">
+        <v>41.5</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>168191</v>
+      </c>
+      <c r="B69">
+        <v>41.5</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>168192</v>
+      </c>
+      <c r="B70">
+        <v>41.5</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>168193</v>
+      </c>
+      <c r="B71">
+        <v>39.5</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>168194</v>
+      </c>
+      <c r="B72">
+        <v>39.5</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>168195</v>
+      </c>
+      <c r="B73">
+        <v>39.5</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>168196</v>
+      </c>
+      <c r="B74">
+        <v>39.5</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>168197</v>
+      </c>
+      <c r="B75">
+        <v>39.5</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>168198</v>
+      </c>
+      <c r="B76">
+        <v>39.5</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>168199</v>
+      </c>
+      <c r="B77">
+        <v>39.5</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>168200</v>
+      </c>
+      <c r="B78">
+        <v>37.5</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>168201</v>
+      </c>
+      <c r="B79">
+        <v>37.5</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>168202</v>
+      </c>
+      <c r="B80">
+        <v>37.5</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>168203</v>
+      </c>
+      <c r="B81">
+        <v>37.5</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>168204</v>
+      </c>
+      <c r="B82">
+        <v>37.5</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>168205</v>
+      </c>
+      <c r="B83">
+        <v>37.5</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>168206</v>
+      </c>
+      <c r="B84">
+        <v>37.5</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>168207</v>
+      </c>
+      <c r="B85">
+        <v>35.5</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>168208</v>
+      </c>
+      <c r="B86">
+        <v>35.5</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>168209</v>
+      </c>
+      <c r="B87">
+        <v>35.5</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>168210</v>
+      </c>
+      <c r="B88">
+        <v>35.5</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>168211</v>
+      </c>
+      <c r="B89">
+        <v>35.5</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>168212</v>
+      </c>
+      <c r="B90">
+        <v>35.5</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>168213</v>
+      </c>
+      <c r="B91">
+        <v>35.5</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>168214</v>
+      </c>
+      <c r="B92">
+        <v>33.5</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>168215</v>
+      </c>
+      <c r="B93">
+        <v>33.5</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>168216</v>
+      </c>
+      <c r="B94">
+        <v>33.5</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>168217</v>
+      </c>
+      <c r="B95">
+        <v>33.5</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>168218</v>
+      </c>
+      <c r="B96">
+        <v>33.5</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>168219</v>
+      </c>
+      <c r="B97">
+        <v>33.5</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>168220</v>
+      </c>
+      <c r="B98">
+        <v>33.5</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -932,36 +2837,3197 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>168289</v>
+      </c>
+      <c r="B2">
+        <v>41.5</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>168290</v>
+      </c>
+      <c r="B3">
+        <v>41.5</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>168291</v>
+      </c>
+      <c r="B4">
+        <v>41.5</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>168292</v>
+      </c>
+      <c r="B5">
+        <v>41.5</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>168293</v>
+      </c>
+      <c r="B6">
+        <v>41.5</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>168294</v>
+      </c>
+      <c r="B7">
+        <v>41.5</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>168295</v>
+      </c>
+      <c r="B8">
+        <v>41.5</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>168296</v>
+      </c>
+      <c r="B9">
+        <v>41.5</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>168297</v>
+      </c>
+      <c r="B10">
+        <v>41.5</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>168298</v>
+      </c>
+      <c r="B11">
+        <v>39.5</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>168299</v>
+      </c>
+      <c r="B12">
+        <v>39.5</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>168300</v>
+      </c>
+      <c r="B13">
+        <v>39.5</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>168301</v>
+      </c>
+      <c r="B14">
+        <v>39.5</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>168302</v>
+      </c>
+      <c r="B15">
+        <v>39.5</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>168303</v>
+      </c>
+      <c r="B16">
+        <v>39.5</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>168304</v>
+      </c>
+      <c r="B17">
+        <v>39.5</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>168305</v>
+      </c>
+      <c r="B18">
+        <v>39.5</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>168306</v>
+      </c>
+      <c r="B19">
+        <v>37.5</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>168307</v>
+      </c>
+      <c r="B20">
+        <v>37.5</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>168308</v>
+      </c>
+      <c r="B21">
+        <v>37.5</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>168309</v>
+      </c>
+      <c r="B22">
+        <v>37.5</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>168310</v>
+      </c>
+      <c r="B23">
+        <v>37.5</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>168311</v>
+      </c>
+      <c r="B24">
+        <v>37.5</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>168312</v>
+      </c>
+      <c r="B25">
+        <v>37.5</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>168313</v>
+      </c>
+      <c r="B26">
+        <v>37.5</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>168314</v>
+      </c>
+      <c r="B27">
+        <v>37.5</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>168315</v>
+      </c>
+      <c r="B28">
+        <v>37.5</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>168316</v>
+      </c>
+      <c r="B29">
+        <v>37.5</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>168317</v>
+      </c>
+      <c r="B30">
+        <v>37.5</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>168318</v>
+      </c>
+      <c r="B31">
+        <v>37.5</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>168319</v>
+      </c>
+      <c r="B32">
+        <v>37.5</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>168320</v>
+      </c>
+      <c r="B33">
+        <v>37.5</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>168321</v>
+      </c>
+      <c r="B34">
+        <v>37.5</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>168322</v>
+      </c>
+      <c r="B35">
+        <v>37.5</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>168323</v>
+      </c>
+      <c r="B36">
+        <v>35.5</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>168324</v>
+      </c>
+      <c r="B37">
+        <v>35.5</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>168325</v>
+      </c>
+      <c r="B38">
+        <v>35.5</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>168326</v>
+      </c>
+      <c r="B39">
+        <v>35.5</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>168327</v>
+      </c>
+      <c r="B40">
+        <v>35.5</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>168328</v>
+      </c>
+      <c r="B41">
+        <v>35.5</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>168329</v>
+      </c>
+      <c r="B42">
+        <v>35.5</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>168330</v>
+      </c>
+      <c r="B43">
+        <v>35.5</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>168331</v>
+      </c>
+      <c r="B44">
+        <v>35.5</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>168332</v>
+      </c>
+      <c r="B45">
+        <v>35.5</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>168333</v>
+      </c>
+      <c r="B46">
+        <v>35.5</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>168334</v>
+      </c>
+      <c r="B47">
+        <v>35.5</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>168335</v>
+      </c>
+      <c r="B48">
+        <v>33.5</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>168336</v>
+      </c>
+      <c r="B49">
+        <v>33.5</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>168337</v>
+      </c>
+      <c r="B50">
+        <v>33.5</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>168338</v>
+      </c>
+      <c r="B51">
+        <v>33.5</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>168339</v>
+      </c>
+      <c r="B52">
+        <v>33.5</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>168340</v>
+      </c>
+      <c r="B53">
+        <v>33.5</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>168341</v>
+      </c>
+      <c r="B54">
+        <v>33.5</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>168342</v>
+      </c>
+      <c r="B55">
+        <v>33.5</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>168343</v>
+      </c>
+      <c r="B56">
+        <v>33.5</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>168344</v>
+      </c>
+      <c r="B57">
+        <v>33.5</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>168345</v>
+      </c>
+      <c r="B58">
+        <v>41.5</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>168346</v>
+      </c>
+      <c r="B59">
+        <v>41.5</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>168347</v>
+      </c>
+      <c r="B60">
+        <v>41.5</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>168348</v>
+      </c>
+      <c r="B61">
+        <v>41.5</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>168349</v>
+      </c>
+      <c r="B62">
+        <v>41.5</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>168350</v>
+      </c>
+      <c r="B63">
+        <v>41.5</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>168351</v>
+      </c>
+      <c r="B64">
+        <v>41.5</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>168352</v>
+      </c>
+      <c r="B65">
+        <v>41.5</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>168353</v>
+      </c>
+      <c r="B66">
+        <v>41.5</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>168354</v>
+      </c>
+      <c r="B67">
+        <v>41.5</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>168355</v>
+      </c>
+      <c r="B68">
+        <v>39.5</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>168356</v>
+      </c>
+      <c r="B69">
+        <v>39.5</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>168357</v>
+      </c>
+      <c r="B70">
+        <v>39.5</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>168358</v>
+      </c>
+      <c r="B71">
+        <v>39.5</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>168359</v>
+      </c>
+      <c r="B72">
+        <v>39.5</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>168360</v>
+      </c>
+      <c r="B73">
+        <v>39.5</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>168361</v>
+      </c>
+      <c r="B74">
+        <v>39.5</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>168362</v>
+      </c>
+      <c r="B75">
+        <v>39.5</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>168363</v>
+      </c>
+      <c r="B76">
+        <v>39.5</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>168364</v>
+      </c>
+      <c r="B77">
+        <v>39.5</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>168365</v>
+      </c>
+      <c r="B78">
+        <v>37.5</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>168366</v>
+      </c>
+      <c r="B79">
+        <v>37.5</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>168367</v>
+      </c>
+      <c r="B80">
+        <v>37.5</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>168368</v>
+      </c>
+      <c r="B81">
+        <v>37.5</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>168369</v>
+      </c>
+      <c r="B82">
+        <v>37.5</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>168370</v>
+      </c>
+      <c r="B83">
+        <v>37.5</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>168371</v>
+      </c>
+      <c r="B84">
+        <v>37.5</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>168372</v>
+      </c>
+      <c r="B85">
+        <v>37.5</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>168373</v>
+      </c>
+      <c r="B86">
+        <v>37.5</v>
+      </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>168374</v>
+      </c>
+      <c r="B87">
+        <v>37.5</v>
+      </c>
+      <c r="C87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>168375</v>
+      </c>
+      <c r="B88">
+        <v>37.5</v>
+      </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>168376</v>
+      </c>
+      <c r="B89">
+        <v>35.5</v>
+      </c>
+      <c r="C89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>168377</v>
+      </c>
+      <c r="B90">
+        <v>35.5</v>
+      </c>
+      <c r="C90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>168378</v>
+      </c>
+      <c r="B91">
+        <v>35.5</v>
+      </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>168379</v>
+      </c>
+      <c r="B92">
+        <v>35.5</v>
+      </c>
+      <c r="C92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>168380</v>
+      </c>
+      <c r="B93">
+        <v>35.5</v>
+      </c>
+      <c r="C93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>168381</v>
+      </c>
+      <c r="B94">
+        <v>35.5</v>
+      </c>
+      <c r="C94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>168382</v>
+      </c>
+      <c r="B95">
+        <v>35.5</v>
+      </c>
+      <c r="C95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>168383</v>
+      </c>
+      <c r="B96">
+        <v>35.5</v>
+      </c>
+      <c r="C96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>168384</v>
+      </c>
+      <c r="B97">
+        <v>35.5</v>
+      </c>
+      <c r="C97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>168385</v>
+      </c>
+      <c r="B98">
+        <v>35.5</v>
+      </c>
+      <c r="C98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <v>168386</v>
+      </c>
+      <c r="B99">
+        <v>35.5</v>
+      </c>
+      <c r="C99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <v>168387</v>
+      </c>
+      <c r="B100">
+        <v>33.5</v>
+      </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <v>168388</v>
+      </c>
+      <c r="B101">
+        <v>33.5</v>
+      </c>
+      <c r="C101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>168389</v>
+      </c>
+      <c r="B102">
+        <v>33.5</v>
+      </c>
+      <c r="C102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <v>168390</v>
+      </c>
+      <c r="B103">
+        <v>33.5</v>
+      </c>
+      <c r="C103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104">
+        <v>168391</v>
+      </c>
+      <c r="B104">
+        <v>33.5</v>
+      </c>
+      <c r="C104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105">
+        <v>168392</v>
+      </c>
+      <c r="B105">
+        <v>33.5</v>
+      </c>
+      <c r="C105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106">
+        <v>168393</v>
+      </c>
+      <c r="B106">
+        <v>33.5</v>
+      </c>
+      <c r="C106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107">
+        <v>168394</v>
+      </c>
+      <c r="B107">
+        <v>33.5</v>
+      </c>
+      <c r="C107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108">
+        <v>168395</v>
+      </c>
+      <c r="B108">
+        <v>33.5</v>
+      </c>
+      <c r="C108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109">
+        <v>168396</v>
+      </c>
+      <c r="B109">
+        <v>33.5</v>
+      </c>
+      <c r="C109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110">
+        <v>168397</v>
+      </c>
+      <c r="B110">
+        <v>33.5</v>
+      </c>
+      <c r="C110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111">
+        <v>168398</v>
+      </c>
+      <c r="B111">
+        <v>33.5</v>
+      </c>
+      <c r="C111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112">
+        <v>168399</v>
+      </c>
+      <c r="B112">
+        <v>33.5</v>
+      </c>
+      <c r="C112">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>168423</v>
+      </c>
+      <c r="B2">
+        <v>41.5</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>168424</v>
+      </c>
+      <c r="B3">
+        <v>41.5</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>168425</v>
+      </c>
+      <c r="B4">
+        <v>41.5</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>168426</v>
+      </c>
+      <c r="B5">
+        <v>41.5</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>168427</v>
+      </c>
+      <c r="B6">
+        <v>41.5</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>168428</v>
+      </c>
+      <c r="B7">
+        <v>41.5</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>168429</v>
+      </c>
+      <c r="B8">
+        <v>41.5</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>168430</v>
+      </c>
+      <c r="B9">
+        <v>41.5</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>168431</v>
+      </c>
+      <c r="B10">
+        <v>39.5</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>168432</v>
+      </c>
+      <c r="B11">
+        <v>39.5</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>168433</v>
+      </c>
+      <c r="B12">
+        <v>39.5</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>168434</v>
+      </c>
+      <c r="B13">
+        <v>39.5</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>168435</v>
+      </c>
+      <c r="B14">
+        <v>39.5</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>168436</v>
+      </c>
+      <c r="B15">
+        <v>39.5</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>168437</v>
+      </c>
+      <c r="B16">
+        <v>39.5</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>168438</v>
+      </c>
+      <c r="B17">
+        <v>39.5</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>168439</v>
+      </c>
+      <c r="B18">
+        <v>39.5</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>168440</v>
+      </c>
+      <c r="B19">
+        <v>37.5</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>168441</v>
+      </c>
+      <c r="B20">
+        <v>37.5</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>168442</v>
+      </c>
+      <c r="B21">
+        <v>37.5</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>168443</v>
+      </c>
+      <c r="B22">
+        <v>37.5</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>168444</v>
+      </c>
+      <c r="B23">
+        <v>37.5</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>168445</v>
+      </c>
+      <c r="B24">
+        <v>37.5</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>168446</v>
+      </c>
+      <c r="B25">
+        <v>37.5</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>168447</v>
+      </c>
+      <c r="B26">
+        <v>37.5</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>168448</v>
+      </c>
+      <c r="B27">
+        <v>37.5</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>168449</v>
+      </c>
+      <c r="B28">
+        <v>35.5</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>168450</v>
+      </c>
+      <c r="B29">
+        <v>35.5</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>168451</v>
+      </c>
+      <c r="B30">
+        <v>35.5</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>168452</v>
+      </c>
+      <c r="B31">
+        <v>35.5</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>168453</v>
+      </c>
+      <c r="B32">
+        <v>35.5</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>168454</v>
+      </c>
+      <c r="B33">
+        <v>35.5</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>168455</v>
+      </c>
+      <c r="B34">
+        <v>35.5</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>168456</v>
+      </c>
+      <c r="B35">
+        <v>35.5</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>168457</v>
+      </c>
+      <c r="B36">
+        <v>33.5</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>168458</v>
+      </c>
+      <c r="B37">
+        <v>33.5</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>168459</v>
+      </c>
+      <c r="B38">
+        <v>33.5</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>168460</v>
+      </c>
+      <c r="B39">
+        <v>33.5</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>168461</v>
+      </c>
+      <c r="B40">
+        <v>33.5</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>168462</v>
+      </c>
+      <c r="B41">
+        <v>33.5</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>168463</v>
+      </c>
+      <c r="B42">
+        <v>33.5</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>168464</v>
+      </c>
+      <c r="B43">
+        <v>33.5</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>168465</v>
+      </c>
+      <c r="B44">
+        <v>41.5</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>168466</v>
+      </c>
+      <c r="B45">
+        <v>41.5</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>168467</v>
+      </c>
+      <c r="B46">
+        <v>41.5</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>168468</v>
+      </c>
+      <c r="B47">
+        <v>41.5</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>168469</v>
+      </c>
+      <c r="B48">
+        <v>41.5</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>168470</v>
+      </c>
+      <c r="B49">
+        <v>41.5</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>168471</v>
+      </c>
+      <c r="B50">
+        <v>41.5</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>168472</v>
+      </c>
+      <c r="B51">
+        <v>41.5</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>168473</v>
+      </c>
+      <c r="B52">
+        <v>39.5</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>168474</v>
+      </c>
+      <c r="B53">
+        <v>39.5</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>168475</v>
+      </c>
+      <c r="B54">
+        <v>39.5</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>168476</v>
+      </c>
+      <c r="B55">
+        <v>39.5</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>168477</v>
+      </c>
+      <c r="B56">
+        <v>39.5</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>168478</v>
+      </c>
+      <c r="B57">
+        <v>39.5</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>168479</v>
+      </c>
+      <c r="B58">
+        <v>39.5</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>168480</v>
+      </c>
+      <c r="B59">
+        <v>39.5</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>168481</v>
+      </c>
+      <c r="B60">
+        <v>37.5</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>168482</v>
+      </c>
+      <c r="B61">
+        <v>37.5</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>168483</v>
+      </c>
+      <c r="B62">
+        <v>37.5</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>168484</v>
+      </c>
+      <c r="B63">
+        <v>37.5</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>168485</v>
+      </c>
+      <c r="B64">
+        <v>37.5</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>168486</v>
+      </c>
+      <c r="B65">
+        <v>37.5</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>168487</v>
+      </c>
+      <c r="B66">
+        <v>37.5</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>168488</v>
+      </c>
+      <c r="B67">
+        <v>37.5</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>168490</v>
+      </c>
+      <c r="B68">
+        <v>35.5</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>168491</v>
+      </c>
+      <c r="B69">
+        <v>35.5</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>168492</v>
+      </c>
+      <c r="B70">
+        <v>35.5</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>168493</v>
+      </c>
+      <c r="B71">
+        <v>35.5</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>168494</v>
+      </c>
+      <c r="B72">
+        <v>35.5</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>168495</v>
+      </c>
+      <c r="B73">
+        <v>35.5</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>168496</v>
+      </c>
+      <c r="B74">
+        <v>35.5</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>168497</v>
+      </c>
+      <c r="B75">
+        <v>35.5</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>168498</v>
+      </c>
+      <c r="B76">
+        <v>33.5</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>168499</v>
+      </c>
+      <c r="B77">
+        <v>33.5</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>168500</v>
+      </c>
+      <c r="B78">
+        <v>33.5</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>168501</v>
+      </c>
+      <c r="B79">
+        <v>33.5</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>168502</v>
+      </c>
+      <c r="B80">
+        <v>33.5</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>168503</v>
+      </c>
+      <c r="B81">
+        <v>33.5</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>168504</v>
+      </c>
+      <c r="B82">
+        <v>33.5</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>168505</v>
+      </c>
+      <c r="B83">
+        <v>33.5</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C89"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>168574</v>
+      </c>
+      <c r="B2">
+        <v>41.5</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>168575</v>
+      </c>
+      <c r="B3">
+        <v>41.5</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>168576</v>
+      </c>
+      <c r="B4">
+        <v>41.5</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>168577</v>
+      </c>
+      <c r="B5">
+        <v>41.5</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>168578</v>
+      </c>
+      <c r="B6">
+        <v>41.5</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>168579</v>
+      </c>
+      <c r="B7">
+        <v>41.5</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>168580</v>
+      </c>
+      <c r="B8">
+        <v>41.5</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>168581</v>
+      </c>
+      <c r="B9">
+        <v>41.5</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>168582</v>
+      </c>
+      <c r="B10">
+        <v>39.5</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>168583</v>
+      </c>
+      <c r="B11">
+        <v>39.5</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>168584</v>
+      </c>
+      <c r="B12">
+        <v>39.5</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>168585</v>
+      </c>
+      <c r="B13">
+        <v>39.5</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>168586</v>
+      </c>
+      <c r="B14">
+        <v>39.5</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>168587</v>
+      </c>
+      <c r="B15">
+        <v>39.5</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>168588</v>
+      </c>
+      <c r="B16">
+        <v>39.5</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>168589</v>
+      </c>
+      <c r="B17">
+        <v>39.5</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>168590</v>
+      </c>
+      <c r="B18">
+        <v>37.5</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>168591</v>
+      </c>
+      <c r="B19">
+        <v>37.5</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>168592</v>
+      </c>
+      <c r="B20">
+        <v>37.5</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>168593</v>
+      </c>
+      <c r="B21">
+        <v>37.5</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>168594</v>
+      </c>
+      <c r="B22">
+        <v>37.5</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>168595</v>
+      </c>
+      <c r="B23">
+        <v>37.5</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>168596</v>
+      </c>
+      <c r="B24">
+        <v>37.5</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>168597</v>
+      </c>
+      <c r="B25">
+        <v>37.5</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>168598</v>
+      </c>
+      <c r="B26">
+        <v>35.5</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>168599</v>
+      </c>
+      <c r="B27">
+        <v>35.5</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>168600</v>
+      </c>
+      <c r="B28">
+        <v>35.5</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>168601</v>
+      </c>
+      <c r="B29">
+        <v>35.5</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>168602</v>
+      </c>
+      <c r="B30">
+        <v>35.5</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>168603</v>
+      </c>
+      <c r="B31">
+        <v>35.5</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>168604</v>
+      </c>
+      <c r="B32">
+        <v>35.5</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>168605</v>
+      </c>
+      <c r="B33">
+        <v>35.5</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>168606</v>
+      </c>
+      <c r="B34">
+        <v>35.5</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>168607</v>
+      </c>
+      <c r="B35">
+        <v>35.5</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>168608</v>
+      </c>
+      <c r="B36">
+        <v>33.5</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>168609</v>
+      </c>
+      <c r="B37">
+        <v>33.5</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>168610</v>
+      </c>
+      <c r="B38">
+        <v>33.5</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>168611</v>
+      </c>
+      <c r="B39">
+        <v>33.5</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>168612</v>
+      </c>
+      <c r="B40">
+        <v>33.5</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>168613</v>
+      </c>
+      <c r="B41">
+        <v>33.5</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>168614</v>
+      </c>
+      <c r="B42">
+        <v>33.5</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>168615</v>
+      </c>
+      <c r="B43">
+        <v>33.5</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>168616</v>
+      </c>
+      <c r="B44">
+        <v>33.5</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>168620</v>
+      </c>
+      <c r="B45">
+        <v>41.5</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>168621</v>
+      </c>
+      <c r="B46">
+        <v>41.5</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>168622</v>
+      </c>
+      <c r="B47">
+        <v>41.5</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>168623</v>
+      </c>
+      <c r="B48">
+        <v>41.5</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>168624</v>
+      </c>
+      <c r="B49">
+        <v>41.5</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>168625</v>
+      </c>
+      <c r="B50">
+        <v>41.5</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>168626</v>
+      </c>
+      <c r="B51">
+        <v>41.5</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>168627</v>
+      </c>
+      <c r="B52">
+        <v>41.5</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>168629</v>
+      </c>
+      <c r="B53">
+        <v>39.5</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>168630</v>
+      </c>
+      <c r="B54">
+        <v>39.5</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>168631</v>
+      </c>
+      <c r="B55">
+        <v>39.5</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>168632</v>
+      </c>
+      <c r="B56">
+        <v>39.5</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>168633</v>
+      </c>
+      <c r="B57">
+        <v>39.5</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>168634</v>
+      </c>
+      <c r="B58">
+        <v>39.5</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>168635</v>
+      </c>
+      <c r="B59">
+        <v>39.5</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>168636</v>
+      </c>
+      <c r="B60">
+        <v>39.5</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>168637</v>
+      </c>
+      <c r="B61">
+        <v>39.5</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>168638</v>
+      </c>
+      <c r="B62">
+        <v>37.5</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>168639</v>
+      </c>
+      <c r="B63">
+        <v>37.5</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>168640</v>
+      </c>
+      <c r="B64">
+        <v>37.5</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>168641</v>
+      </c>
+      <c r="B65">
+        <v>37.5</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>168642</v>
+      </c>
+      <c r="B66">
+        <v>37.5</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>168643</v>
+      </c>
+      <c r="B67">
+        <v>37.5</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>168644</v>
+      </c>
+      <c r="B68">
+        <v>37.5</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>168645</v>
+      </c>
+      <c r="B69">
+        <v>37.5</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>168646</v>
+      </c>
+      <c r="B70">
+        <v>37.5</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>168647</v>
+      </c>
+      <c r="B71">
+        <v>37.5</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>168648</v>
+      </c>
+      <c r="B72">
+        <v>35.5</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>168649</v>
+      </c>
+      <c r="B73">
+        <v>35.5</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>168650</v>
+      </c>
+      <c r="B74">
+        <v>35.5</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>168651</v>
+      </c>
+      <c r="B75">
+        <v>35.5</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>168652</v>
+      </c>
+      <c r="B76">
+        <v>35.5</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>168653</v>
+      </c>
+      <c r="B77">
+        <v>35.5</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>168654</v>
+      </c>
+      <c r="B78">
+        <v>35.5</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>168655</v>
+      </c>
+      <c r="B79">
+        <v>35.5</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>168656</v>
+      </c>
+      <c r="B80">
+        <v>35.5</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>168657</v>
+      </c>
+      <c r="B81">
+        <v>35.5</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>168658</v>
+      </c>
+      <c r="B82">
+        <v>33.5</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>168659</v>
+      </c>
+      <c r="B83">
+        <v>33.5</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>168660</v>
+      </c>
+      <c r="B84">
+        <v>33.5</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>168661</v>
+      </c>
+      <c r="B85">
+        <v>33.5</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>168662</v>
+      </c>
+      <c r="B86">
+        <v>33.5</v>
+      </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>168663</v>
+      </c>
+      <c r="B87">
+        <v>33.5</v>
+      </c>
+      <c r="C87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>168664</v>
+      </c>
+      <c r="B88">
+        <v>33.5</v>
+      </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>168665</v>
+      </c>
+      <c r="B89">
+        <v>33.5</v>
+      </c>
+      <c r="C89">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>